--- a/biology/Zoologie/Ctenurella/Ctenurella.xlsx
+++ b/biology/Zoologie/Ctenurella/Ctenurella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenurella est un genre éteint de placodermes ptyctodontides du Dévonien supérieur de l'Allemagne. 
 Les premiers fossiles ont été trouvés dans la vallée de Strunde dans le Krakmulde Paffrather.
 L'espèce « Ctenurella gardineri » a été attribuée à un nouveau genre Austroptyctodus par John A. Long (1997), stipulant que le genre Ctenurella n'est prouvé que dans les sites allemands. Une nouvelle description de Ctenurella gladbachensis par Long (1997) a montré que la restauration originale avait mal restitué le toit de la tête car les os centraux ne se rencontraient pas en réalité derrière la plaque nucale.
-On a montré en 2008 que les ptyctodontides donnaient naissance à des jeunes vivants, avec des spécimens de femelles gravides de deux genres, Materpiscis et Austroptyctodus, tous deux de la Formation de Gogo en Australie occidentale, montrant la présence d'embryons à naître dans les poissons mères[1].
+On a montré en 2008 que les ptyctodontides donnaient naissance à des jeunes vivants, avec des spécimens de femelles gravides de deux genres, Materpiscis et Austroptyctodus, tous deux de la Formation de Gogo en Australie occidentale, montrant la présence d'embryons à naître dans les poissons mères.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>†Ctenurella gardineri
 †Ctenurella gladbachensis - espèce type
@@ -546,7 +560,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Tor Ørvig, « New Finds of Acanthodians, Arthrodires, Crossopterygians, Ganoids and Dipnoans in the Upper Middle Devonian Calcareous Flags (Oberer Plattenkalk) of the Bergisch Gladbach-Paffrath Trough - Part 1 », Paläontologische Zeitschrift, Heidelberg, Stuttgart et Berlin, Springer Science+Business Media et E. Schweizerbart (d), vol. 34, nos 3-4,‎ novembre 1960, p. 295-335 (ISSN 0031-0220 et 1867-6812, OCLC 263595522 et 1026972945, DOI 10.1007/BF02986872, lire en ligne)</t>
         </is>
